--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Dropbox\Boot Camp  Data analytics program\Matplotlib-Homework-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C733EA53-7B41-4B95-8B82-2C4DF1D24C33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65E8303-05E8-45A7-95F4-4FE64882B7DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{FF8E4552-2DDD-4BE8-8F3E-0C861481EDEE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF8E4552-2DDD-4BE8-8F3E-0C861481EDEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>mouse_metadata.head()</t>
   </si>
@@ -174,13 +174,135 @@
   </si>
   <si>
     <t>merged_df.head()</t>
+  </si>
+  <si>
+    <t>how do I use pyplot to do Bar chart on groupby</t>
+  </si>
+  <si>
+    <t>ouse ID</t>
+  </si>
+  <si>
+    <t>Drug Regimen</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Age_months</t>
+  </si>
+  <si>
+    <t>Weight (g)</t>
+  </si>
+  <si>
+    <t>Timepoint</t>
+  </si>
+  <si>
+    <t>Tumor Volume (mm3)</t>
+  </si>
+  <si>
+    <t>Metastatic Sites</t>
+  </si>
+  <si>
+    <t># merged_duplicates_df = merged_df[merged_df["Duplicated"]==True]</t>
+  </si>
+  <si>
+    <t>merged_clean_df</t>
+  </si>
+  <si>
+    <t># Put treatments into a list for for loop (and later for plot labels)</t>
+  </si>
+  <si>
+    <r>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> Drug </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> Drugs:</t>
+    </r>
+  </si>
+  <si>
+    <t># Create empty list to fill with tumor vol data (for plotting)</t>
+  </si>
+  <si>
+    <t># Calculate the IQR and quantitatively determine if there are any potential outliers. </t>
+  </si>
+  <si>
+    <t>    </t>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># Locate the rows which contain mice on each drug and get the tumor volumes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># add subset </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># Determine outliers using upper and lower bounds</t>
+    </r>
+  </si>
+  <si>
+    <t>I don't understand what is being asked</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,13 +334,50 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF6A9955"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC586C0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1E1E1E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -233,9 +392,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -552,15 +724,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56A1A5A-667B-4E3A-9F67-2BEDCD03ED03}">
-  <dimension ref="A2:E5"/>
+  <dimension ref="A2:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F7:F8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -568,17 +740,141 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="36" x14ac:dyDescent="0.25">
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D26" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="6"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="6"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="6"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="6"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Dropbox\Boot Camp  Data analytics program\Matplotlib-Homework-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65E8303-05E8-45A7-95F4-4FE64882B7DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879BCAF7-1BF3-4C4B-9A70-558A44F683A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF8E4552-2DDD-4BE8-8F3E-0C861481EDEE}"/>
   </bookViews>
@@ -726,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56A1A5A-667B-4E3A-9F67-2BEDCD03ED03}">
   <dimension ref="A2:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
